--- a/Dev/PythonDev/Work/Testing/RecommendationSystem/FinalResults/StandardDev.xlsx
+++ b/Dev/PythonDev/Work/Testing/RecommendationSystem/FinalResults/StandardDev.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Workspace\AI\Thesis\FinalYearProject\FYPWAAR\Dev\PythonDev\Work\Testing\RecommendationSystem\FinalResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3BCDC8-17FA-4033-A92C-749D0F15D62D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94A5492-1837-42D3-BF92-9027DC10275E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-2616" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>RMSE</t>
   </si>
@@ -126,6 +126,1109 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Algorithms Performance on standard deviation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> MAE using Delivery,Interview,Visit Task</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$13:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>BaselineOnly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNNBaseline</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SVDPP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Coclustering</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KNNMeans</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SlopeOne</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>KNNZscore</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>NormalPredictor</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>KNNBasic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.4771690836292999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6671728490419998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6841509946764E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3982646594336002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7260453817239997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7833460783926E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8529174031576997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8576107945492003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8688806761990997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9427174410550998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78FD-495C-8219-3EE43BBFECFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="482495167"/>
+        <c:axId val="614963183"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="482495167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ALGORITHM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614963183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="614963183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>MAE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482495167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>451485</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2C1771-0A9F-4B3C-8928-003C05D584E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,155 +1524,155 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>2.072102880865E-2</v>
+        <v>1.3888186258672001E-2</v>
       </c>
       <c r="C2" s="1">
-        <v>3.3982646594336002E-2</v>
+        <v>2.4771690836292999E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>2.4260262547814E-2</v>
+        <v>5.2353690308218999E-4</v>
       </c>
       <c r="E2" s="1">
-        <v>1.6107969732058001E-3</v>
+        <v>2.4980036473597E-4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>1.7268379316607001E-2</v>
+        <v>1.6371665163391998E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>2.6841509946764E-2</v>
+        <v>2.6671728490419998E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>1.0598694709989E-2</v>
+        <v>1.4966629547096E-3</v>
       </c>
       <c r="E3" s="1">
-        <v>4.8989794855664002E-4</v>
+        <v>1.8856180831640999E-4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>1.9978244239394E-2</v>
+        <v>1.7268379316607001E-2</v>
       </c>
       <c r="C4" s="1">
-        <v>3.7833460783926E-2</v>
+        <v>2.6841509946764E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>7.6843274844899997E-3</v>
+        <v>1.0598694709989E-2</v>
       </c>
       <c r="E4" s="1">
-        <v>4.1215072755270001E-4</v>
+        <v>4.8989794855664002E-4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>2.0573600624749E-2</v>
+        <v>1.9978244239394E-2</v>
       </c>
       <c r="C5" s="1">
-        <v>3.7260453817239997E-2</v>
+        <v>3.7833460783926E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>3.2913430662876997E-2</v>
+        <v>7.6843274844899997E-3</v>
       </c>
       <c r="E5" s="1">
-        <v>4.1004254521803999E-4</v>
+        <v>4.1215072755270001E-4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>2.3308527800403999E-2</v>
+        <v>2.0573600624749E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>3.9427174410550998E-2</v>
+        <v>3.7260453817239997E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>6.7129924938302997E-3</v>
+        <v>3.2913430662876997E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>1.8761899927483E-4</v>
+        <v>4.1004254521803999E-4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>2.1935584484273001E-2</v>
+        <v>2.072102880865E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>3.8576107945492003E-2</v>
+        <v>3.3982646594336002E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>1.6832337983773999E-2</v>
+        <v>2.4260262547814E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>4.1090712657079E-4</v>
+        <v>1.6107969732058001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>2.2525001773338001E-2</v>
+        <v>2.1935584484273001E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>3.8529174031576997E-2</v>
+        <v>3.8576107945492003E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>9.0989450060004994E-3</v>
+        <v>1.6832337983773999E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>9.2889432481131E-4</v>
+        <v>4.1090712657079E-4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>1.6371665163391998E-2</v>
+        <v>2.2525001773338001E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>2.6671728490419998E-2</v>
+        <v>3.8529174031576997E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>1.4966629547096E-3</v>
+        <v>9.0989450060004994E-3</v>
       </c>
       <c r="E9" s="1">
-        <v>1.8856180831640999E-4</v>
+        <v>9.2889432481131E-4</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>1.3888186258672001E-2</v>
+        <v>2.3308527800403999E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>2.4771690836292999E-2</v>
+        <v>3.9427174410550998E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>5.2353690308218999E-4</v>
+        <v>6.7129924938302997E-3</v>
       </c>
       <c r="E10" s="1">
-        <v>2.4980036473597E-4</v>
+        <v>1.8761899927483E-4</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -589,7 +1692,96 @@
         <v>3.4084991809689999E-4</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.4771690836292999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.6671728490419998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.6841509946764E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.3982646594336002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.7260453817239997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3.7833460783926E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3.8529174031576997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3.8576107945492003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.8688806761990997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3.9427174410550998E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:B22">
+    <sortCondition ref="B13:B22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>